--- a/tabular/ecv-side-data.xlsx
+++ b/tabular/ecv-side-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="240" windowWidth="41440" windowHeight="25420" tabRatio="500"/>
+    <workbookView xWindow="-1460" yWindow="1340" windowWidth="51200" windowHeight="27260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6484,8 +6484,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6699,7 +6701,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="189">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6793,6 +6795,7 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6886,6 +6889,7 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7217,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W518"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
